--- a/src/main/resources/jxls-template/export.xlsx
+++ b/src/main/resources/jxls-template/export.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="users" var="user" lastCell="M3")</t>
+jx:each(items="users" var="user" lastCell="M3")
+jx:autoRowHeight(lastCell="M3")</t>
         </r>
       </text>
     </comment>
@@ -285,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -301,6 +302,9 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,7 +327,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -365,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,7 +404,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,7 +616,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -633,21 +637,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -727,7 +731,7 @@
       <c r="L3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
